--- a/data/7 Класс.xlsx
+++ b/data/7 Класс.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12210" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12180" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="А" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,25 @@
     <sheet name="В" sheetId="3" r:id="rId3"/>
     <sheet name="Г" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="22">
   <si>
     <t>ВД РОВ</t>
   </si>
@@ -59,6 +72,9 @@
   </si>
   <si>
     <t>ИСТОР</t>
+  </si>
+  <si>
+    <t>–––––––</t>
   </si>
   <si>
     <t>ИНФ</t>
@@ -85,21 +101,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -555,148 +564,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1024,7 +1033,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -1097,7 +1106,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1110,33 +1119,42 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1164,7 +1182,7 @@
         <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1192,7 +1210,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -1221,7 +1239,7 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1235,7 +1253,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -1263,7 +1281,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
@@ -1272,7 +1290,7 @@
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1284,15 +1302,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1305,8 +1323,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1317,10 +1338,13 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1328,13 +1352,16 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1347,10 +1374,13 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -1361,10 +1391,13 @@
       <c r="D5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -1375,19 +1408,25 @@
       <c r="D6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
         <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1435,7 +1474,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -1452,7 +1491,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -1460,7 +1499,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -1514,16 +1553,16 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
